--- a/medicine/Enfance/Enfant_prodige/Enfant_prodige.xlsx
+++ b/medicine/Enfance/Enfant_prodige/Enfant_prodige.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un enfant prodige est un enfant qui, à un âge précoce, domine un ou plusieurs domaines scientifiques ou artistiques qui ne sont ordinairement maîtrisés que par des adultes. Les domaines habituels des enfants prodiges comprennent les mathématiques, les échecs, la littérature, les arts visuels et la musique. 
 En allemand, en roumain et en anglais, on utilise parfois le terme « wunderkind » (wunder, miracle et kind, enfant) comme synonyme d'enfant prodige, bien que son utilisation soit déconseillée dans la littérature scientifique. Wunderkind est aussi utilisé plus généralement pour des adultes qui atteignent le succès et la renommée au début de leur carrière.
-Au XVIIe et au XVIIIe siècle, l'enfant prodige, qui appartient habituellement à un milieu favorisé où il a pu développer ses talents dans un environnement favorable, est facilement accepté et reconnu, et parfois fêté, par la société. Adrien Baillet écrit en 1688 Des enfants devenus célèbres par leurs études ou leurs écrits. À partir de la fin du XVIIIe siècle, on se méfie davantage d'une précocité qui ne respecte pas le temps de l'enfance[1].
+Au XVIIe et au XVIIIe siècle, l'enfant prodige, qui appartient habituellement à un milieu favorisé où il a pu développer ses talents dans un environnement favorable, est facilement accepté et reconnu, et parfois fêté, par la société. Adrien Baillet écrit en 1688 Des enfants devenus célèbres par leurs études ou leurs écrits. À partir de la fin du XVIIIe siècle, on se méfie davantage d'une précocité qui ne respecte pas le temps de l'enfance.
 </t>
         </is>
       </c>
@@ -515,7 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aux échecs
+          <t>Aux échecs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 José Raúl Capablanca
 Magnus Carlsen
 Bobby Fischer
@@ -525,10 +543,80 @@
 Judit Polgár
 Samuel Reshevsky
 Nigel Short
-Au jeu de go
-De nombreux joueurs professionnels de go ont obtenu leur titre très jeunes. C'est par exemple le cas en Corée du Sud de Lee Chang-ho (11 ans), de Gu Li en Chine (12 ans) ou plus récemment au Japon de Sumire Nakamura (10 ans).
-En littérature
-par ordre alphabétique du nom de famille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enfant_prodige</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfant_prodige</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Au jeu de go</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux joueurs professionnels de go ont obtenu leur titre très jeunes. C'est par exemple le cas en Corée du Sud de Lee Chang-ho (11 ans), de Gu Li en Chine (12 ans) ou plus récemment au Japon de Sumire Nakamura (10 ans).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Enfant_prodige</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfant_prodige</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En littérature</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">par ordre alphabétique du nom de famille
 Daisy Ashford
 François-Thomas-Marie de Baculard d'Arnaud
 Jean-Philippe Baratier
@@ -551,8 +639,43 @@
 Sacha Sperling
 Myriam Thibault
 Voltaire
-En musique
-par ordre alphabétique du nom de famille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Enfant_prodige</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfant_prodige</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En musique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">par ordre alphabétique du nom de famille
 Charles-Valentin Alkan
 Clotilde Cerdà i Bosch
 Jason Becker
@@ -595,14 +718,83 @@
 Grace VanderWaal
 David Werdyger
 Clara Wieck (Clara Schumann)
-Dans les arts visuels
-par ordre alphabétique du nom de famille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Enfant_prodige</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfant_prodige</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dans les arts visuels</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>par ordre alphabétique du nom de famille
 Salvador Dalí, peintre.
 Alexandra Nechita, peintre.
 Pablo Picasso, peintre.
-Rosa Bonheur, peintre.
-En sciences et techniques
-par ordre alphabétique du nom de famille
+Rosa Bonheur, peintre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Enfant_prodige</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enfant_prodige</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En sciences et techniques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">par ordre alphabétique du nom de famille
 Maria Gaetana Agnesi (1718 - 1799), mathématicienne.
 Jean-Philippe Baratier (1721 — 1740), philologue, mathématicien, astronome, géographe.
 Jacob Barnett (1998 - ), mathématicien, astrophysicien.
